--- a/imports/students_import_new_MAIN.xlsx
+++ b/imports/students_import_new_MAIN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LORAINE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\attendance\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C18483D-F682-4B23-B2F7-5506C711FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B5352-35E7-42CC-81C0-FD142E3CC9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>David Brown</t>
   </si>
   <si>
-    <t>castro.loraine.26@gmail.com</t>
-  </si>
-  <si>
     <t>09123456789</t>
   </si>
   <si>
@@ -428,13 +425,16 @@
   </si>
   <si>
     <t>Mike Wilson</t>
+  </si>
+  <si>
+    <t>sample@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -444,6 +444,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -491,10 +497,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,8 +518,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -817,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,11 +923,11 @@
       <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
+      <c r="K2" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -927,34 +941,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
+      <c r="K3" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -965,37 +979,37 @@
         <v>378209145376</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1006,37 +1020,37 @@
         <v>548790321684</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
+      <c r="K5" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1047,37 +1061,37 @@
         <v>593201847265</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1088,37 +1102,37 @@
         <v>418515383035</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
+      <c r="K7" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1129,37 +1143,37 @@
         <v>592841076213</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1170,37 +1184,37 @@
         <v>704193826574</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>21</v>
+      <c r="K9" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1211,37 +1225,37 @@
         <v>745976379835</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="K10" s="5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1252,37 +1266,37 @@
         <v>309878613646</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>21</v>
+        <v>71</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1293,37 +1307,37 @@
         <v>127463980521</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1334,37 +1348,37 @@
         <v>386517204963</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>21</v>
+      <c r="K13" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1375,37 +1389,37 @@
         <v>182563283391</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="K14" s="5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1416,37 +1430,37 @@
         <v>196853737107</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>21</v>
+      <c r="K15" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1457,37 +1471,37 @@
         <v>304958671230</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="K16" s="5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1498,37 +1512,37 @@
         <v>904728163059</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>21</v>
+      <c r="K17" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1539,37 +1553,37 @@
         <v>901753824519</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="K18" s="5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1580,37 +1594,37 @@
         <v>219847365098</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>21</v>
+      <c r="K19" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1621,37 +1635,37 @@
         <v>872639105387</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="K20" s="5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1662,43 +1676,46 @@
         <v>850174932610</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>21</v>
+      <c r="K21" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{0D1CA56C-61BD-433C-9305-926945D17554}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/imports/students_import_new_MAIN.xlsx
+++ b/imports/students_import_new_MAIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\attendance\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B5352-35E7-42CC-81C0-FD142E3CC9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D69FEC-7409-4F03-B29C-98FDF58F5357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
     <t>Mike Wilson</t>
   </si>
   <si>
-    <t>sample@gmail.com</t>
+    <t>loraine894791@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,9 +519,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,7 +961,7 @@
       <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -1005,7 +1002,7 @@
       <c r="J4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -1046,7 +1043,7 @@
       <c r="J5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -1087,7 +1084,7 @@
       <c r="J6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -1128,7 +1125,7 @@
       <c r="J7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -1169,7 +1166,7 @@
       <c r="J8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -1210,7 +1207,7 @@
       <c r="J9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1251,7 +1248,7 @@
       <c r="J10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -1292,7 +1289,7 @@
       <c r="J11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1333,7 +1330,7 @@
       <c r="J12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -1374,7 +1371,7 @@
       <c r="J13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -1415,7 +1412,7 @@
       <c r="J14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L14" s="5" t="s">
@@ -1456,7 +1453,7 @@
       <c r="J15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -1497,7 +1494,7 @@
       <c r="J16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -1538,7 +1535,7 @@
       <c r="J17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -1579,7 +1576,7 @@
       <c r="J18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -1620,7 +1617,7 @@
       <c r="J19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -1661,7 +1658,7 @@
       <c r="J20" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L20" s="5" t="s">
@@ -1702,7 +1699,7 @@
       <c r="J21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -1714,7 +1711,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{0D1CA56C-61BD-433C-9305-926945D17554}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{A6927238-F3F9-423A-8558-5D57F4488780}"/>
+    <hyperlink ref="K3:K21" r:id="rId2" display="loraine894791@gmail.com" xr:uid="{4DF0B8F8-CC29-420A-8DD1-F32CCB0CE8F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
